--- a/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:39:42-06:00</t>
+    <t>2022-01-16T23:55:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:55:54-06:00</t>
+    <t>2022-01-17T00:51:16-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T10:37:50-06:00</t>
+    <t>2022-01-18T09:56:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T09:56:03-06:00</t>
+    <t>2022-01-18T10:02:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:02:13-06:00</t>
+    <t>2022-01-18T10:08:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
+++ b/temp/pages/StructureDefinition-consent-exchange-organization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/StructureDefinition/consent-exchange-organization</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/StructureDefinition/consent-exchange-organization</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:08:08-06:00</t>
+    <t>2022-07-03T23:04:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -761,7 +761,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/ConsentExchangeRelations</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/ValueSet/ConsentExchangeRelations</t>
   </si>
   <si>
     <t>./type</t>
@@ -1168,7 +1168,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="33.50390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.05078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
